--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-F.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-F.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-F.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-F.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'F': 450.0 ton, 2.15 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'F': 300.0-600.0 ton, 5.77 COP, 6.76 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>eb8cb70c-ecc7-47ef-8d0c-141da84ce4a7</t>
+          <t>400078ce-11fe-4169-b06d-3cb4fb6dc619</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>805220.2121007978</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>185909.3056807527</v>
+        <v>69176.84292699421</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>389171.204364815</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>575080.5100455678</v>
+        <v>458348.0472918092</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4028721358831</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2003246219626</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>272261.4859932996</v>
+        <v>101308.4847079736</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>778342.4087296301</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1050603.89472293</v>
+        <v>879650.8934376037</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7668553828772</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2525699544627</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>395812.0826538238</v>
+        <v>147281.6552678073</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1167513.613094445</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1563325.695748269</v>
+        <v>1314795.268362252</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.1308386298714</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.3871285048608</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>556561.0956623254</v>
+        <v>207096.3546064953</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1556684.81745926</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2113245.913121586</v>
+        <v>1763781.172065755</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.4948218768656</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.604000273157</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>223228.0116511844</v>
+        <v>83063.13146807671</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>386210.0192853911</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>609438.0309365755</v>
+        <v>469273.1507534678</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3924936525979</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3552503961947</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>326914.190470097</v>
+        <v>121644.7531872887</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>772420.0385707822</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1099334.229040879</v>
+        <v>894064.7917580708</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7460984163068</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4431785656503</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475265.8500594624</v>
+        <v>176846.3979666814</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1158630.057856173</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1633895.907915636</v>
+        <v>1335476.455822855</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0997031800158</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6302967980631</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>668282.9904192806</v>
+        <v>248668.0658062548</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1544840.077141564</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2213123.067560845</v>
+        <v>1793508.142947819</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4533079437247</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9166050934331</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>251549.6626226574</v>
+        <v>93601.61631429048</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>370413.4863965022</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>621963.1490191596</v>
+        <v>464015.1027107927</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3371293142825</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4615919722012</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368390.8381884104</v>
+        <v>137078.2116354372</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>740826.9727930044</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1109217.810981415</v>
+        <v>877905.1844284416</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6353697396762</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.5471422046148</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>535564.3467601254</v>
+        <v>199283.4654374116</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1111240.459189506</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1646804.805949632</v>
+        <v>1310523.924626918</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9336101650698</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.7448273842292</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>753070.1883378025</v>
+        <v>280217.3777202135</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1481653.945586009</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2234724.133923811</v>
+        <v>1761871.323306222</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.2318505904635</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.0546475110446</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266942.2071032522</v>
+        <v>99329.1813110066</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>341781.6056981482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>608723.8128014004</v>
+        <v>441110.7870091548</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2367791209371</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.5105527457199</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>390932.9966788584</v>
+        <v>145466.147631535</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>683563.2113962964</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1074496.208075155</v>
+        <v>829029.3590278313</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4346693529853</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.5515961515197</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>568335.9988616512</v>
+        <v>211477.7954715324</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1025344.817094445</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1593680.815956096</v>
+        <v>1236822.612565977</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6325595850334</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.7120206805637</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>799151.21365163</v>
+        <v>297364.1248309985</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1367126.422792593</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2166277.636444223</v>
+        <v>1664490.547623591</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8304498170817</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9918263328518</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>179247.6618878954</v>
+        <v>66698.04561985229</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>410923.9191351854</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>590171.5810230807</v>
+        <v>477621.9647550377</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3711439357035</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.2337183719025</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>262505.6051267663</v>
+        <v>97678.32194744148</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>821847.8382703707</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1084353.443397137</v>
+        <v>919526.1602178122</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8145100936292</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.3272514658473</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>381629.0427360876</v>
+        <v>142004.1468557143</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1232771.757405556</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1614400.800141644</v>
+        <v>1374775.90426127</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.2578762515549</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.5001482677929</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>536617.9747158594</v>
+        <v>199675.5203446708</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1643695.676540741</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2180313.651256601</v>
+        <v>1843371.196885412</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.7012424094806</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.7524087777393</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217883.8037651996</v>
+        <v>81074.55199302438</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>411704.4380582307</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>629588.2418234303</v>
+        <v>492778.990051255</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3738855006178</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.3999986145502</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>319087.6754112224</v>
+        <v>118732.5073429454</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>823408.8761164614</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1142496.551527684</v>
+        <v>942141.3834594068</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8199932234578</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5390305168886</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>463887.7103491295</v>
+        <v>172612.5927751611</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1235113.314174692</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1699001.024523822</v>
+        <v>1407725.906949853</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2661009462978</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.7748778146291</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>652283.9085789202</v>
+        <v>242714.8082896714</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1646817.752232923</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2299101.660811843</v>
+        <v>1889532.560522594</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7122086691378</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.1075405077716</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>249005.3336238025</v>
+        <v>92654.87162679955</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>399649.6091718109</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>648654.9427956133</v>
+        <v>492304.4807986104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3315430346673</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5210583769368</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>364664.7052143373</v>
+        <v>135691.7177505362</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>799299.2183436217</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1163963.923557959</v>
+        <v>934990.936094158</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7353082915567</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.6691105712013</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>530147.3174387281</v>
+        <v>197267.7891100483</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1198948.827515433</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1729096.144954161</v>
+        <v>1396216.616625481</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1390735484462</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9281635103983</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>745453.1702969745</v>
+        <v>277383.0857053357</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1598598.436687243</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2344051.606984218</v>
+        <v>1875981.522392579</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5428388053356</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.2982171945279</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>268969.4477721668</v>
+        <v>100083.5174579531</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>374759.4324759261</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>643728.8802480929</v>
+        <v>474842.9499338792</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2441165378519</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.5887922356612</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>393901.8612817554</v>
+        <v>146570.8619951011</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>749518.8649518522</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1143420.726233608</v>
+        <v>896089.7269469533</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.560455297926</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7056486798681</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>572652.1160579658</v>
+        <v>213083.8224546931</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1124278.297427778</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1696930.413485744</v>
+        <v>1337362.119882471</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8767940580001</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9427928640388</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>805220.2121007978</v>
+        <v>299622.3988367291</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1499037.729903704</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2304257.942004502</v>
+        <v>1798660.128740434</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1931328180742</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3002247881732</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>176413.4212366471</v>
+        <v>65643.42482165842</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>419094.0090351853</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>595507.4302718325</v>
+        <v>484737.4338568437</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.2914820101366</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.2455256197642</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>258354.9007360104</v>
+        <v>96133.8450605837</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>838188.0180703707</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1096542.918806381</v>
+        <v>934321.8631309543</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.7662973536064</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.3542245212601</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>375594.7740866251</v>
+        <v>139758.7958066389</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1257282.027105556</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1632876.801192181</v>
+        <v>1397040.822912195</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.2411126970763</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.541032242157</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>528133.0412884911</v>
+        <v>196518.2770598242</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1676376.036140741</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2204509.077429232</v>
+        <v>1872894.313200566</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.7159280405463</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.8059487824549</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>214639.5857140824</v>
+        <v>79867.37862576732</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>423616.2319606997</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>638255.8176747821</v>
+        <v>503483.610586467</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3073959664646</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.4192469777056</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>314336.5650552931</v>
+        <v>116964.6194278276</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>847232.4639213993</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1161569.028976692</v>
+        <v>964197.0833492269</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.7981252662626</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5813853780987</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>456980.5751807536</v>
+        <v>170042.4481400197</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1270848.695882099</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1727829.271062853</v>
+        <v>1440891.144022119</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.2888545660605</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.8388976245545</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>642571.6160904639</v>
+        <v>239100.8647623436</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1694464.927842799</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2337036.543933263</v>
+        <v>1933565.792605142</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.7795838658585</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.1917837170729</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>246376.9066180994</v>
+        <v>91676.83407535589</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>415303.107076749</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>661680.0136948484</v>
+        <v>506979.9411521049</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2781416133441</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.550076814</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>360815.411927069</v>
+        <v>134259.3959195325</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>830606.2141534979</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1191421.626080567</v>
+        <v>964865.6100730305</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7396165600214</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7302833370706</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>524551.2384074962</v>
+        <v>195185.488395014</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1245909.321230247</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1770460.559637743</v>
+        <v>1441094.809625261</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.2010915066988</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.020318913884</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>737584.3860593814</v>
+        <v>274455.1115018004</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1661212.428306996</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2398796.814366377</v>
+        <v>1935667.539808796</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6625664533762</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.4201835444401</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>268271.8280575426</v>
+        <v>99823.93319860352</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>394154.6343833334</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>662426.4624408759</v>
+        <v>493978.5675819369</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2037189507748</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6305830219845</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>392880.2073120076</v>
+        <v>146190.7046063561</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>788309.2687666668</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1181189.476078674</v>
+        <v>934499.9733730229</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.590771234883</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.7900652497861</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>571166.8417671783</v>
+        <v>212531.151968721</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1182463.90315</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1753630.744917179</v>
+        <v>1394995.055118721</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9778235189912</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0695232300766</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>803131.7314230548</v>
+        <v>298845.2752856982</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1576618.537533334</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2379750.268956388</v>
+        <v>1875463.812819032</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3648758030994</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.468956962856</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>178671.6327799063</v>
+        <v>66483.70521887652</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>413681.4740648148</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>592353.1068447211</v>
+        <v>480165.1792836913</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.1637355519102</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.2385456852114</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>261662.0188396665</v>
+        <v>97364.4235341029</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>827362.9481296296</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1089024.966969296</v>
+        <v>924727.3716637325</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.6219155482649</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3375886838114</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>380402.6421529241</v>
+        <v>141547.8032628188</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1241044.422194444</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1621447.064347368</v>
+        <v>1382592.225457263</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.0800955446196</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.5157403477219</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>534893.5027196789</v>
+        <v>199033.844405024</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1654725.896259259</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2189619.398978938</v>
+        <v>1853759.740664283</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.5382755409742</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.773000676943</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>215351.2451080161</v>
+        <v>80132.18704905413</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>421945.4009927983</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>637296.6461008145</v>
+        <v>502077.5880418525</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.1928649514439</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.4171169146867</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>315378.7799320792</v>
+        <v>117352.4275290069</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>843890.8019855967</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1159269.581917676</v>
+        <v>961243.2295146035</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.6801743473323</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.576278922406</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>458495.7407924027</v>
+        <v>170606.2411849221</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1265836.202978395</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1724331.943770798</v>
+        <v>1436442.444163317</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.1674837432207</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.8311309978823</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>644702.1276889864</v>
+        <v>239893.6280167996</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1687781.603971193</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2332483.73166018</v>
+        <v>1927675.231987993</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.654793139109</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.1816731411156</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>246111.1077730159</v>
+        <v>91577.93033899268</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>417373.9801113168</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>663485.0878843328</v>
+        <v>508951.9104503095</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1767512144211</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.5540983223792</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>360426.1533675109</v>
+        <v>134114.5528298661</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>834747.9602226336</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1195174.113590145</v>
+        <v>968862.5130524996</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6479468732866</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7386434698844</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>523985.3366950767</v>
+        <v>194974.9163974003</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1252121.94033395</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1776107.277029027</v>
+        <v>1447096.856731351</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1191425321522</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0328991842334</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>736788.6577557134</v>
+        <v>274159.0210415954</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1669495.920445267</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2406284.578200981</v>
+        <v>1943654.941486862</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.5903381910177</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4368654654261</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>267886.9126841325</v>
+        <v>99680.70620827579</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>399967.2114203703</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>667854.1241045028</v>
+        <v>499647.9176286461</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1153943408418</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6427143364231</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>392316.5043216568</v>
+        <v>145980.9507531093</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>799934.4228407406</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1192250.927162397</v>
+        <v>945915.3735938499</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5252331261279</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8147885928312</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>570347.3338085153</v>
+        <v>212226.2131001352</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1199901.634261111</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1770248.968069626</v>
+        <v>1412127.847361246</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9350719114141</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1066664609862</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1078904617304606</v>
+        <v>0.08635202268443401</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>801979.4011447079</v>
+        <v>298416.4932493536</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1599868.845681481</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2401848.246826189</v>
+        <v>1898285.338930835</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3449106967003</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.518347940888</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.08635202268443401</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.08635202268443401</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.08635202268443401</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.08635202268443401</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>